--- a/excels/rl_10_r_bonus_base.xlsx
+++ b/excels/rl_10_r_bonus_base.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12600" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="90" windowWidth="27960" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="time" sheetId="1" r:id="rId1"/>
@@ -678,7 +678,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -724,7 +724,7 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
@@ -732,315 +732,7 @@
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
     <cellStyle name="Złe" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -1455,17 +1147,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R89"/>
+  <dimension ref="A1:R108"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108:J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.875" bestFit="1" customWidth="1"/>
     <col min="2" max="6" width="13.875" customWidth="1"/>
-    <col min="7" max="7" width="3.5" customWidth="1"/>
+    <col min="7" max="7" width="11.875" bestFit="1" customWidth="1"/>
     <col min="8" max="12" width="13.875" customWidth="1"/>
     <col min="13" max="13" width="3.75" customWidth="1"/>
     <col min="14" max="18" width="13.875" customWidth="1"/>
@@ -5914,51 +5606,638 @@
         <v>0.40305021115843226</v>
       </c>
     </row>
+    <row r="92" spans="1:18">
+      <c r="B92">
+        <f ca="1">AVERAGE(OFFSET(B$2, (ROW()-ROW(A$92))*9,,9,))</f>
+        <v>0.79961395263671708</v>
+      </c>
+      <c r="C92">
+        <f t="shared" ref="C92:R100" ca="1" si="2">AVERAGE(OFFSET(C$2, (ROW()-ROW(B$92))*9,,9,))</f>
+        <v>2.0689939392937498</v>
+      </c>
+      <c r="D92">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.2298823727501715</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.6739903555975841</v>
+      </c>
+      <c r="F92">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.5065778096516866</v>
+      </c>
+      <c r="H92">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0585325823889828</v>
+      </c>
+      <c r="I92">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6709995004865821</v>
+      </c>
+      <c r="J92">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.4604347281985746</v>
+      </c>
+      <c r="K92">
+        <f t="shared" ca="1" si="2"/>
+        <v>13.071658346388046</v>
+      </c>
+      <c r="L92">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.2228531307644213</v>
+      </c>
+      <c r="N92">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.28059434890747043</v>
+      </c>
+      <c r="O92">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2763334910074835</v>
+      </c>
+      <c r="P92">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.0723262098100426</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.6813232633802562</v>
+      </c>
+      <c r="R92">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5485561158921939</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="B93">
+        <f t="shared" ref="B93:Q100" ca="1" si="3">AVERAGE(OFFSET(B$2, (ROW()-ROW(A$92))*9,,9,))</f>
+        <v>0.45439545313517193</v>
+      </c>
+      <c r="C93">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.4752223756578182</v>
+      </c>
+      <c r="D93">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.6517742739783379</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.0095577504899707</v>
+      </c>
+      <c r="F93">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.9876264466179709</v>
+      </c>
+      <c r="H93">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.97088601854112333</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.6552473968929671</v>
+      </c>
+      <c r="J93">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5412221484714035</v>
+      </c>
+      <c r="K93">
+        <f t="shared" ca="1" si="3"/>
+        <v>9.8105803065829598</v>
+      </c>
+      <c r="L93">
+        <f t="shared" ca="1" si="3"/>
+        <v>2.989576445685481</v>
+      </c>
+      <c r="N93">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.21533375316195977</v>
+      </c>
+      <c r="O93">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.63722300529479825</v>
+      </c>
+      <c r="P93">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.6685522662268695</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" ca="1" si="3"/>
+        <v>4.2298909028371137</v>
+      </c>
+      <c r="R93">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.75858192973666627</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="B94">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.28108620643615678</v>
+      </c>
+      <c r="C94">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3899101946088983</v>
+      </c>
+      <c r="D94">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6632226043277267</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.8673097292582064</v>
+      </c>
+      <c r="F94">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2790016863081155</v>
+      </c>
+      <c r="H94">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.38017831908331923</v>
+      </c>
+      <c r="I94">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5740000406901002</v>
+      </c>
+      <c r="J94">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.6760013898213595</v>
+      </c>
+      <c r="K94">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.6178938547769928</v>
+      </c>
+      <c r="L94">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.0967775715721948</v>
+      </c>
+      <c r="N94">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.13666751649644607</v>
+      </c>
+      <c r="O94">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.58962636523776502</v>
+      </c>
+      <c r="P94">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3813335365719235</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.9129873646630129</v>
+      </c>
+      <c r="R94">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.55482522646586063</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="B95">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.22688860363430388</v>
+      </c>
+      <c r="C95">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1137793064117414</v>
+      </c>
+      <c r="D95">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.1012241310543445</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.585829761293188</v>
+      </c>
+      <c r="F95">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.9592434035407158</v>
+      </c>
+      <c r="H95">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.24330931239657883</v>
+      </c>
+      <c r="I95">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2414436870151055</v>
+      </c>
+      <c r="J95">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.0627777046627442</v>
+      </c>
+      <c r="K95">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.2342179351382416</v>
+      </c>
+      <c r="L95">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.6090001795026982</v>
+      </c>
+      <c r="N95">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.1004440254635279</v>
+      </c>
+      <c r="O95">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.54367083973354691</v>
+      </c>
+      <c r="P95">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.74788882997300699</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.0941084490882007</v>
+      </c>
+      <c r="R95">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.43244364526536688</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="B96">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.16477815310160274</v>
+      </c>
+      <c r="C96">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.81967112753126181</v>
+      </c>
+      <c r="D96">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.2053332858615424</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.2336652543809583</v>
+      </c>
+      <c r="F96">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.80533393224080341</v>
+      </c>
+      <c r="H96">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35633383856879203</v>
+      </c>
+      <c r="I96">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.96800006760491053</v>
+      </c>
+      <c r="J96">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.9735724396175769</v>
+      </c>
+      <c r="K96">
+        <f t="shared" ca="1" si="2"/>
+        <v>11.382994360393916</v>
+      </c>
+      <c r="L96">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.3252860969967215</v>
+      </c>
+      <c r="N96">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.5666540993584348E-2</v>
+      </c>
+      <c r="O96">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.40344405174255321</v>
+      </c>
+      <c r="P96">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.84799954626295193</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.4735960165659563</v>
+      </c>
+      <c r="R96">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.34500092930263893</v>
+      </c>
+    </row>
+    <row r="97" spans="2:18">
+      <c r="B97">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.16777748531765357</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.92522237035963051</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.9400973320007284</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.3608925342559726</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.69455586539374325</v>
+      </c>
+      <c r="H97">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.15933304362826836</v>
+      </c>
+      <c r="I97">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4525557888878695</v>
+      </c>
+      <c r="J97">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.2988563908470971</v>
+      </c>
+      <c r="K97">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.6352486875321759</v>
+      </c>
+      <c r="L97">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.72688852416144367</v>
+      </c>
+      <c r="N97">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.5555509991115946E-2</v>
+      </c>
+      <c r="O97">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.47916942172580224</v>
+      </c>
+      <c r="P97">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.92744437853495143</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.5083349280887131</v>
+      </c>
+      <c r="R97">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.28866619533962629</v>
+      </c>
+    </row>
+    <row r="98" spans="2:18">
+      <c r="B98">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.13399971856011245</v>
+      </c>
+      <c r="C98">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.3421115875244107</v>
+      </c>
+      <c r="D98">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.8260015911526135</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.0767690605587319</v>
+      </c>
+      <c r="F98">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.55500004026624827</v>
+      </c>
+      <c r="H98">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.16262176301744213</v>
+      </c>
+      <c r="I98">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.1618887053595641</v>
+      </c>
+      <c r="J98">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.6033378177218931</v>
+      </c>
+      <c r="K98">
+        <f t="shared" ca="1" si="2"/>
+        <v>11.644417312410095</v>
+      </c>
+      <c r="L98">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.0756675667232929</v>
+      </c>
+      <c r="N98">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.2666539086235826E-2</v>
+      </c>
+      <c r="O98">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.50133305125766259</v>
+      </c>
+      <c r="P98">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.76144456863403098</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.7787809901767293</v>
+      </c>
+      <c r="R98">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.24044532246059788</v>
+      </c>
+    </row>
+    <row r="99" spans="2:18">
+      <c r="B99">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.13311115900675408</v>
+      </c>
+      <c r="C99">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.74277793036566719</v>
+      </c>
+      <c r="D99">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.0606785615285208</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.7332566314273379</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.51833354102240614</v>
+      </c>
+      <c r="H99">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.33311247825622448</v>
+      </c>
+      <c r="I99">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.60588908195495561</v>
+      </c>
+      <c r="J99">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.1707018746270039</v>
+      </c>
+      <c r="K99">
+        <f t="shared" ca="1" si="2"/>
+        <v>9.8763425085279479</v>
+      </c>
+      <c r="L99">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.9660003715091234</v>
+      </c>
+      <c r="N99">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.7177163230048242E-2</v>
+      </c>
+      <c r="O99">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.36177767647637227</v>
+      </c>
+      <c r="P99">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.593555476930405</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" ca="1" si="2"/>
+        <v>3.7735501130421927</v>
+      </c>
+      <c r="R99">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.22277786996629467</v>
+      </c>
+    </row>
+    <row r="100" spans="2:18">
+      <c r="B100">
+        <f t="shared" ca="1" si="3"/>
+        <v>0.12688822216457746</v>
+      </c>
+      <c r="C100">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.6365561750200055</v>
+      </c>
+      <c r="D100">
+        <f t="shared" ca="1" si="2"/>
+        <v>2.304879320992359</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="2"/>
+        <v>7.0550682809617751</v>
+      </c>
+      <c r="F100">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.44744446542527899</v>
+      </c>
+      <c r="H100">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.34533246358235625</v>
+      </c>
+      <c r="I100">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.4215055306752507</v>
+      </c>
+      <c r="J100">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.5930016835530563</v>
+      </c>
+      <c r="K100">
+        <f t="shared" ca="1" si="2"/>
+        <v>8.4586357275644684</v>
+      </c>
+      <c r="L100">
+        <f t="shared" ca="1" si="2"/>
+        <v>1.9522573153177811</v>
+      </c>
+      <c r="N100">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.477774514092334E-2</v>
+      </c>
+      <c r="O100">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.35233709547254743</v>
+      </c>
+      <c r="P100">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.91055713759528145</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.793890582190615</v>
+      </c>
+      <c r="R100">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.20300043953789557</v>
+      </c>
+    </row>
+    <row r="108" spans="2:18">
+      <c r="B108">
+        <v>0.79961395263671708</v>
+      </c>
+      <c r="C108">
+        <v>0.45439545313517193</v>
+      </c>
+      <c r="D108">
+        <v>0.28108620643615678</v>
+      </c>
+      <c r="E108">
+        <v>0.22688860363430388</v>
+      </c>
+      <c r="F108">
+        <v>0.16477815310160274</v>
+      </c>
+      <c r="G108">
+        <v>0.16777748531765357</v>
+      </c>
+      <c r="H108">
+        <v>0.13399971856011245</v>
+      </c>
+      <c r="I108">
+        <v>0.13311115900675408</v>
+      </c>
+      <c r="J108">
+        <v>0.12688822216457746</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B83 B90:B1048576">
-    <cfRule type="top10" dxfId="44" priority="15" bottom="1" rank="10"/>
+  <conditionalFormatting sqref="B1:B83 B90:B1048576 C92:R100">
+    <cfRule type="top10" dxfId="0" priority="15" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1:C83 C90:C1048576">
-    <cfRule type="top10" dxfId="43" priority="14" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="15" priority="14" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D83 D90:D1048576">
-    <cfRule type="top10" dxfId="42" priority="13" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="14" priority="13" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E83 E90:E1048576">
-    <cfRule type="top10" dxfId="41" priority="12" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="13" priority="12" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F1:G83 F90:G1048576">
-    <cfRule type="top10" dxfId="40" priority="11" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="12" priority="11" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H83 H90:H1048576">
-    <cfRule type="top10" dxfId="39" priority="10" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="11" priority="10" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1:I83 I90:I1048576">
-    <cfRule type="top10" dxfId="38" priority="9" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="10" priority="9" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J83 J90:J1048576">
-    <cfRule type="top10" dxfId="37" priority="8" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="9" priority="8" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="K1:K83 K90:K1048576">
-    <cfRule type="top10" dxfId="36" priority="7" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="8" priority="7" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:M83 L90:M1048576">
-    <cfRule type="top10" dxfId="35" priority="6" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="7" priority="6" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:N83 N90:N1048576">
-    <cfRule type="top10" dxfId="34" priority="5" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="6" priority="5" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:O83 O90:O1048576">
-    <cfRule type="top10" dxfId="33" priority="4" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="5" priority="4" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:P83 P90:P1048576">
-    <cfRule type="top10" dxfId="32" priority="3" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="4" priority="3" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:Q83 Q90:Q1048576">
-    <cfRule type="top10" dxfId="31" priority="2" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="3" priority="2" bottom="1" rank="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R83 R90:R1048576">
-    <cfRule type="top10" dxfId="30" priority="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="2" priority="1" bottom="1" rank="10"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10084,7 +10363,7 @@
         <v>0.62962962962962965</v>
       </c>
       <c r="C84">
-        <f t="shared" ref="C84:P84" si="0">COUNTIF(C2:C82,23) / 81</f>
+        <f t="shared" ref="C84:F84" si="0">COUNTIF(C2:C82,23) / 81</f>
         <v>0</v>
       </c>
       <c r="D84">
@@ -10258,7 +10537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
+    <sheetView topLeftCell="B61" workbookViewId="0">
       <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
